--- a/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-adverseevent.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-adverseevent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-20T09:30:38-04:00</t>
+    <t>2025-03-28T22:48:43+11:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -732,7 +732,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-advevent-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}</t>
+uds-plus-advevent-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-advevent-1a:All dateTime data elements should have valid year &gt;= 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-advevent-1b:All dateTime data elements should have valid year &lt;= 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>FiveWs.init</t>
@@ -748,7 +748,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-advevent-2:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}</t>
+uds-plus-advevent-2:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-advevent-2a:All dateTime data elements should have valid year &gt;= 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-advevent-2b:All dateTime data elements should have valid year &lt;= 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>AdverseEvent.recordedDate</t>
@@ -764,7 +764,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-advevent-3:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}</t>
+uds-plus-advevent-3:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-advevent-3a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-advevent-3b:All dateTime data elements should have valid year &lt; 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>FiveWs.recorded</t>
